--- a/public/data/yield_loss/yield_table_liberia.xlsx
+++ b/public/data/yield_loss/yield_table_liberia.xlsx
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>554.45</v>
+        <v>447.13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.58</v>
+        <v>200.12</v>
       </c>
       <c r="V2" t="n">
         <v>340.7</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68.9</v>
+        <v>68.82</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>259.22</v>
+        <v>252.12</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>77.27</v>
+        <v>76.15</v>
       </c>
       <c r="V5" t="n">
         <v>52.97</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>194.01</v>
+        <v>191.06</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>55.68</v>
+        <v>55.37</v>
       </c>
       <c r="V6" t="n">
         <v>38.28</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>151.86</v>
+        <v>151.43</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>177.95</v>
+        <v>177.69</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>62.91</v>
+        <v>62.9</v>
       </c>
       <c r="V9" t="n">
         <v>8.16</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>387.02</v>
+        <v>344.75</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.07</v>
+        <v>138.49</v>
       </c>
       <c r="V10" t="n">
         <v>308.37</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188.09</v>
+        <v>182.36</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>2.23</v>
       </c>
       <c r="U11" t="n">
-        <v>50.21</v>
+        <v>48.11</v>
       </c>
       <c r="V11" t="n">
         <v>12.01</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>118.93</v>
+        <v>116.08</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>49.49</v>
+        <v>49.06</v>
       </c>
       <c r="V12" t="n">
         <v>7.11</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.03</v>
+        <v>143.88</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>52.15</v>
+        <v>52.03</v>
       </c>
       <c r="V13" t="n">
         <v>5.54</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>121.51</v>
+        <v>121.42</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.58</v>
+        <v>46.56</v>
       </c>
       <c r="V14" t="n">
         <v>1.62</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>123.24</v>
+        <v>122.53</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>48.73</v>
+        <v>48.69</v>
       </c>
       <c r="V15" t="n">
         <v>9.74</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>43.9</v>
+        <v>43.89</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>101.05</v>
+        <v>98.65</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>36.23</v>
+        <v>35.88</v>
       </c>
       <c r="V17" t="n">
         <v>12.16</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>234.33</v>
+        <v>224.69</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>72.71</v>
+        <v>71.85</v>
       </c>
       <c r="V18" t="n">
         <v>155.44</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>524.1</v>
+        <v>499.76</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>188.09</v>
+        <v>185.45</v>
       </c>
       <c r="V19" t="n">
         <v>293.23</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>431.01</v>
+        <v>373.21</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>159.09</v>
+        <v>148.59</v>
       </c>
       <c r="V20" t="n">
         <v>357.79</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>127.1</v>
+        <v>119.52</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>50.52</v>
+        <v>49.18</v>
       </c>
       <c r="V22" t="n">
         <v>43.3</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>17.7</v>
+        <v>16.72</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>5.5</v>
+        <v>5.35</v>
       </c>
       <c r="V23" t="n">
         <v>9.74</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>255.81</v>
+        <v>219.22</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>103.31</v>
+        <v>94.66</v>
       </c>
       <c r="V24" t="n">
         <v>183.05</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>196.48</v>
+        <v>189.34</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>79.78</v>
+        <v>78.37</v>
       </c>
       <c r="V25" t="n">
         <v>54.57</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>424.39</v>
+        <v>413.85</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>25.3</v>
       </c>
       <c r="U26" t="n">
-        <v>39.66</v>
+        <v>38.2</v>
       </c>
       <c r="V26" t="n">
         <v>34.67</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>566.27</v>
+        <v>496.78</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>40.62</v>
       </c>
       <c r="U27" t="n">
-        <v>31.97</v>
+        <v>29.3</v>
       </c>
       <c r="V27" t="n">
         <v>59.37</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.88</v>
+        <v>14.03</v>
       </c>
       <c r="G28" t="n">
         <v>1029.6</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1266.31</v>
+        <v>448.52</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0.16</v>
       </c>
       <c r="U28" t="n">
-        <v>462.53</v>
+        <v>197.28</v>
       </c>
       <c r="V28" t="n">
         <v>1159.08</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>388.45</v>
+        <v>179.49</v>
       </c>
       <c r="G29" t="n">
         <v>2653.52</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3253.07</v>
+        <v>840.29</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>866.24</v>
+        <v>612.1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.35</v>
+        <v>0.99</v>
       </c>
       <c r="U29" t="n">
-        <v>1196.18</v>
+        <v>301.77</v>
       </c>
       <c r="V29" t="n">
         <v>2465.56</v>
       </c>
       <c r="W29" t="n">
-        <v>920.77</v>
+        <v>911.13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38.28</v>
+        <v>13.59</v>
       </c>
       <c r="G30" t="n">
         <v>1494.74</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1502.28</v>
+        <v>419.18</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0.19</v>
       </c>
       <c r="U30" t="n">
-        <v>624.37</v>
+        <v>227.28</v>
       </c>
       <c r="V30" t="n">
         <v>1578.15</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.16</v>
+        <v>82.96</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>72.7</v>
+        <v>44.61</v>
       </c>
       <c r="V31" t="n">
         <v>514.48</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>775.37</v>
+        <v>176.72</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>279.7</v>
+        <v>88.02</v>
       </c>
       <c r="V32" t="n">
         <v>1326.23</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>931.6</v>
+        <v>138.07</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>370.07</v>
+        <v>68.62</v>
       </c>
       <c r="V33" t="n">
         <v>879.18</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>695.14</v>
+        <v>105.23</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>266.19</v>
+        <v>55.04</v>
       </c>
       <c r="V34" t="n">
         <v>529.87</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>538.67</v>
+        <v>538.09</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>38.66</v>
       </c>
       <c r="U35" t="n">
-        <v>81.33</v>
+        <v>81.31</v>
       </c>
       <c r="V35" t="n">
         <v>6.91</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>419.09</v>
+        <v>415.71</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>7.54</v>
       </c>
       <c r="U36" t="n">
-        <v>150.96</v>
+        <v>150.39</v>
       </c>
       <c r="V36" t="n">
         <v>9.8</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>89.12</v>
+        <v>89.07</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>221.95</v>
+        <v>207.43</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>5.17</v>
       </c>
       <c r="U38" t="n">
-        <v>68.34</v>
+        <v>63.64</v>
       </c>
       <c r="V38" t="n">
         <v>26.47</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>463.76</v>
+        <v>457.2</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>24.68</v>
       </c>
       <c r="U39" t="n">
-        <v>115.04</v>
+        <v>114.2</v>
       </c>
       <c r="V39" t="n">
         <v>17.44</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>313.18</v>
+        <v>309.57</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4465,7 +4465,7 @@
         <v>13.34</v>
       </c>
       <c r="U40" t="n">
-        <v>77.59</v>
+        <v>77.01</v>
       </c>
       <c r="V40" t="n">
         <v>16.32</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>107.52</v>
+        <v>105.36</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>40.23</v>
+        <v>40.12</v>
       </c>
       <c r="V42" t="n">
         <v>44.6</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>159.13</v>
+        <v>158.96</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>391.59</v>
+        <v>224.06</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>161.89</v>
+        <v>116.73</v>
       </c>
       <c r="V45" t="n">
         <v>1235.06</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>125.36</v>
+        <v>58.65</v>
       </c>
       <c r="G46" t="n">
         <v>3217.43</v>
@@ -4918,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1368.99</v>
+        <v>649.28</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>78.09</v>
+        <v>76.34</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>471.77</v>
+        <v>282.22</v>
       </c>
       <c r="V46" t="n">
         <v>3634.04</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>192.15</v>
+        <v>137.92</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>80.28</v>
+        <v>65.55</v>
       </c>
       <c r="V49" t="n">
         <v>105.93</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="G53" t="n">
         <v>4.03</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>425.33</v>
+        <v>424.69</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>8.24</v>
       </c>
       <c r="U53" t="n">
-        <v>29.17</v>
+        <v>29.16</v>
       </c>
       <c r="V53" t="n">
         <v>2.91</v>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>10.49</v>
+        <v>10.11</v>
       </c>
       <c r="G54" t="n">
         <v>110.27</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>318.79</v>
+        <v>306.72</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>0.19</v>
       </c>
       <c r="U54" t="n">
-        <v>98.88</v>
+        <v>97.57</v>
       </c>
       <c r="V54" t="n">
         <v>96.23</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>140.13</v>
+        <v>140.05</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>35.62</v>
+        <v>32.05</v>
       </c>
       <c r="G56" t="n">
         <v>57.75</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>219.36</v>
+        <v>207.46</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5745,7 +5745,7 @@
         <v>0.05</v>
       </c>
       <c r="U56" t="n">
-        <v>25.25</v>
+        <v>25.24</v>
       </c>
       <c r="V56" t="n">
         <v>23.84</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1572.14</v>
+        <v>431.98</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>707.39</v>
+        <v>246.52</v>
       </c>
       <c r="V57" t="n">
         <v>1024.62</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>551.48</v>
+        <v>272.78</v>
       </c>
       <c r="G58" t="n">
         <v>2794.61</v>
@@ -5878,13 +5878,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2647.53</v>
+        <v>1103.33</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>638.31</v>
+        <v>527.39</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5905,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>497.58</v>
+        <v>225.21</v>
       </c>
       <c r="V58" t="n">
         <v>4197.72</v>
       </c>
       <c r="W58" t="n">
-        <v>1091.98</v>
+        <v>1091.48</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>400.85</v>
+        <v>308.85</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>152.44</v>
+        <v>133.03</v>
       </c>
       <c r="V59" t="n">
         <v>434.81</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>374.84</v>
+        <v>277.31</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>148.21</v>
+        <v>125.98</v>
       </c>
       <c r="V60" t="n">
         <v>398.72</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>312.21</v>
+        <v>138.57</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>136.96</v>
+        <v>67.89</v>
       </c>
       <c r="V61" t="n">
         <v>273.71</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>18.3</v>
+        <v>16.9</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>408.77</v>
+        <v>129.72</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>177.1</v>
+        <v>75.67</v>
       </c>
       <c r="V64" t="n">
         <v>365.92</v>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>426.37</v>
+        <v>180.5</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>192.85</v>
+        <v>99.63</v>
       </c>
       <c r="V65" t="n">
         <v>354.16</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>300.71</v>
+        <v>18.55</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>139.92</v>
+        <v>9.33</v>
       </c>
       <c r="V66" t="n">
         <v>52.09</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>243.43</v>
+        <v>140.78</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>106.91</v>
+        <v>78.56</v>
       </c>
       <c r="V67" t="n">
         <v>238.47</v>
